--- a/Resources/Data_Table_Mortgages.xlsx
+++ b/Resources/Data_Table_Mortgages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rushiparikh/Desktop/Analysis_Projects_Folder/Project_Group_12/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711BDFC-AF7B-2D48-95DA-8F5F9DA48868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA939F7-7949-AF44-9067-70F6631098DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="4" xr2:uid="{98A1DC92-7CFE-2948-93A7-6CC3F903DC07}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{98A1DC92-7CFE-2948-93A7-6CC3F903DC07}"/>
   </bookViews>
   <sheets>
     <sheet name="Canada" sheetId="1" r:id="rId1"/>
@@ -156,23 +156,23 @@
     <t>2022Q3</t>
   </si>
   <si>
-    <t>Mortgage delinquency rate (%)</t>
-  </si>
-  <si>
-    <t>Average Value of New Mortgage Loans ($)</t>
-  </si>
-  <si>
-    <t>Residential Mortgage Arrears and Foreclosure Rates (%)</t>
-  </si>
-  <si>
     <t>Quarters</t>
+  </si>
+  <si>
+    <t>Mortgage_delinquency_rate</t>
+  </si>
+  <si>
+    <t>Average_Value_New_Loans</t>
+  </si>
+  <si>
+    <t>Residential_Mortgage_Arrears_Rates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,12 +222,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,54 +337,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4972987-3BCE-E44A-887D-75716C2EA0C6}">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,17 +675,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -761,7 +714,7 @@
       <c r="AC1" s="16"/>
       <c r="AD1" s="16"/>
       <c r="AE1" s="16"/>
-      <c r="AF1" s="27"/>
+      <c r="AF1" s="18"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
@@ -775,42 +728,42 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="6">
         <v>0.37</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="8">
         <v>214203</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="17">
         <v>0.32</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
@@ -825,42 +778,42 @@
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="6">
         <v>0.35</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="8">
         <v>212978</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="17">
         <v>0.31</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
@@ -875,1377 +828,483 @@
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>0.35</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="8">
         <v>226172</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="17">
         <v>0.31188154277373309</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="6">
         <v>0.35</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="8">
         <v>223413</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="17">
         <v>0.31528578065905627</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="6">
         <v>0.37</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="8">
         <v>225005</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="17">
         <v>0.30535247594859039</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="6">
         <v>0.34</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="8">
         <v>221594</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="17">
         <v>0.28602544748759973</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="6">
         <v>0.34</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="8">
         <v>240043</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="17">
         <v>0.28457289883249665</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="6">
         <v>0.35</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="8">
         <v>238145</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="17">
         <v>0.28507528101474683</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="6">
         <v>0.36</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="8">
         <v>238254</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="17">
         <v>0.28125384765964523</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="6">
         <v>0.35</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="8">
         <v>239454</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="17">
         <v>0.27107683430407081</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="6">
         <v>0.35</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="8">
         <v>256704</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="17">
         <v>0.27192384681459725</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="6">
         <v>0.35</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="8">
         <v>255401</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="17">
         <v>0.2717889930252973</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="6">
         <v>0.36</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="8">
         <v>257305</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="17">
         <v>0.2822415188918832</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="6">
         <v>0.35</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="8">
         <v>259814</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="17">
         <v>0.27529128310924922</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="6">
         <v>0.35</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="8">
         <v>276336</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="17">
         <v>0.28485303324943922</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="6">
         <v>0.34</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="8">
         <v>271895</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="17">
         <v>0.27606868502180221</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="6">
         <v>0.34</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="8">
         <v>275693</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="17">
         <v>0.2680354544251885</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="6">
         <v>0.32</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="8">
         <v>275265</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="17">
         <v>0.24675786934062416</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="6">
         <v>0.3</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="8">
         <v>287576</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="17">
         <v>0.24</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="8">
         <v>280073</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="17">
         <v>0.23899475631182601</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="8">
         <v>282175</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="17">
         <v>0.243891196996457</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="8">
         <v>276311</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="8">
         <v>281219</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="6">
         <v>0.3</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="8">
         <v>268751</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="6">
         <v>0.3</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="8">
         <v>270488</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="6">
         <v>0.3</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="8">
         <v>266967</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="8">
         <v>283556</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="8">
         <v>286038</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="8">
         <v>291692</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="8">
         <v>297247</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="8">
         <v>303447</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="6">
         <v>0.25</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="8">
         <v>322008</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="6">
         <v>0.25</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="8">
         <v>335462</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="6">
         <v>0.22</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="8">
         <v>351862</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="6">
         <v>0.2</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="8">
         <v>371584</v>
       </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="6">
         <v>0.19</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="8">
         <v>358717</v>
       </c>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="6">
         <v>0.18</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="8">
         <v>371822</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="6">
         <v>0.16</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="8">
         <v>374635</v>
       </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="32">
+      <c r="B40" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="8">
         <v>363654</v>
       </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2254,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64541F8-820B-0748-959C-7A4B1E12B874}">
-  <dimension ref="A1:AN52"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2269,30 +1328,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="11">
         <v>0.31</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="12">
         <v>233122</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="17">
         <v>0.21</v>
       </c>
     </row>
@@ -2300,13 +1359,13 @@
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="12">
         <v>230770</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="17">
         <v>0.2</v>
       </c>
     </row>
@@ -2314,13 +1373,13 @@
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="12">
         <v>249054</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="17">
         <v>0.20325936361572525</v>
       </c>
       <c r="E4" s="16"/>
@@ -2364,113 +1423,113 @@
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="12">
         <v>244060</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="17">
         <v>0.20620279324569243</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="12">
         <v>244077</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="17">
         <v>0.1948185531536861</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>0.27</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="12">
         <v>240828</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="17">
         <v>0.18121013083942508</v>
       </c>
       <c r="E7" s="10"/>
@@ -2496,13 +1555,13 @@
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>0.27</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="12">
         <v>262838</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="17">
         <v>0.1766815038396404</v>
       </c>
     </row>
@@ -2510,13 +1569,13 @@
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="11">
         <v>0.26</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="12">
         <v>257244</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="17">
         <v>0.17496381464946079</v>
       </c>
     </row>
@@ -2524,13 +1583,13 @@
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>0.27</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>254854</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="17">
         <v>0.16533124658535625</v>
       </c>
     </row>
@@ -2538,13 +1597,13 @@
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="11">
         <v>0.25</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>259093</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="17">
         <v>0.15434785486007388</v>
       </c>
     </row>
@@ -2552,13 +1611,13 @@
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>0.24</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <v>281259</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="17">
         <v>0.15056642500620174</v>
       </c>
     </row>
@@ -2566,13 +1625,13 @@
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>0.23</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <v>277802</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="17">
         <v>0.14373354215440046</v>
       </c>
     </row>
@@ -2580,13 +1639,13 @@
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>0.24</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <v>278626</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="17">
         <v>0.14419899562838148</v>
       </c>
     </row>
@@ -2594,13 +1653,13 @@
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="11">
         <v>0.22</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="12">
         <v>285024</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="17">
         <v>0.13242423966204725</v>
       </c>
     </row>
@@ -2608,13 +1667,13 @@
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="11">
         <v>0.2</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="12">
         <v>307369</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="17">
         <v>0.13489591774863643</v>
       </c>
     </row>
@@ -2622,13 +1681,13 @@
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="11">
         <v>0.19</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="12">
         <v>310236</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="17">
         <v>0.12401707982061327</v>
       </c>
     </row>
@@ -2636,13 +1695,13 @@
       <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="11">
         <v>0.18</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="12">
         <v>319009</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="17">
         <v>0.11708581710540694</v>
       </c>
     </row>
@@ -2650,13 +1709,13 @@
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="11">
         <v>0.16</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="12">
         <v>326645</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="17">
         <v>0.10262894136146394</v>
       </c>
     </row>
@@ -2664,13 +1723,13 @@
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="11">
         <v>0.16</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="12">
         <v>338561</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="17">
         <v>0.1</v>
       </c>
     </row>
@@ -2678,13 +1737,13 @@
       <c r="A21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="11">
         <v>0.15</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="12">
         <v>323821</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="17">
         <v>9.76451857196525E-2</v>
       </c>
     </row>
@@ -2692,13 +1751,13 @@
       <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="11">
         <v>0.15</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="12">
         <v>322179</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="17">
         <v>9.8769089599520396E-2</v>
       </c>
     </row>
@@ -2706,253 +1765,199 @@
       <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="12">
         <v>315576</v>
       </c>
-      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="11">
         <v>0.13</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="12">
         <v>327367</v>
       </c>
-      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="12">
         <v>321579</v>
       </c>
-      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="12">
         <v>321074</v>
       </c>
-      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="12">
         <v>324080</v>
       </c>
-      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="12">
         <v>343117</v>
       </c>
-      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="12">
         <v>343768</v>
       </c>
-      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="12">
         <v>348257</v>
       </c>
-      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="12">
         <v>363422</v>
       </c>
-      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="12">
         <v>373382</v>
       </c>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="11">
         <v>0.12</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="12">
         <v>395828</v>
       </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="11">
         <v>0.13</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="12">
         <v>403739</v>
       </c>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="11">
         <v>0.1</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="12">
         <v>438788</v>
       </c>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="11">
         <v>0.09</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="12">
         <v>464838</v>
       </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="11">
         <v>0.08</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="12">
         <v>453826</v>
       </c>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="11">
         <v>0.08</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="12">
         <v>474072</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="12">
         <v>486207</v>
       </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="12">
         <v>462701</v>
       </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2961,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DCE771-78C1-3A44-AFA3-2646F08D72CA}">
-  <dimension ref="A1:AP42"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2975,65 +1980,59 @@
     <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="11">
         <v>0.43</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="12">
         <v>286652</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="14">
         <v>0.45</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="11">
         <v>0.43</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="12">
         <v>290928</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="14">
         <v>0.46</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>0.42</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="12">
         <v>303663</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="14">
         <v>0.47</v>
       </c>
       <c r="E4" s="16"/>
@@ -3072,76 +2071,72 @@
       <c r="AL4" s="16"/>
       <c r="AM4" s="16"/>
       <c r="AN4" s="16"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>0.43</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="12">
         <v>305256</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="14">
         <v>0.45</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="11">
         <v>0.43</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="12">
         <v>309374</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="14">
         <v>0.44</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -3177,21 +2172,21 @@
       <c r="AM6" s="12"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>0.4</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="12">
         <v>305138</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="14">
         <v>0.39</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -3209,513 +2204,413 @@
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>0.4</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="12">
         <v>321625</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="14">
         <v>0.39</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="11">
         <v>0.4</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="12">
         <v>323373</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="14">
         <v>0.37</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>0.4</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>325035</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="14">
         <v>0.36</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="11">
         <v>0.38</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>328540</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="14">
         <v>0.33</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="11">
         <v>0.34</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <v>350672</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="14">
         <v>0.3</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>0.32</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <v>357016</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>0.32</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <v>368782</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="14">
         <v>0.27</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="12">
         <v>385910</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="14">
         <v>0.24</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="11">
         <v>0.26</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="12">
         <v>395297</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="14">
         <v>0.24</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="11">
         <v>0.25</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="12">
         <v>366703</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="14">
         <v>0.21</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="11">
         <v>0.23</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="12">
         <v>358655</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="14">
         <v>0.19</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="11">
         <v>0.2</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="12">
         <v>369174</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="14">
         <v>0.17</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="11">
         <v>0.18</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="12">
         <v>389430</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="14">
         <v>0.16</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="11">
         <v>0.18</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="12">
         <v>381223</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="14">
         <v>0.15</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="11">
         <v>0.17</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="12">
         <v>384794</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="14">
         <v>0.16</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="11">
         <v>0.17</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="12">
         <v>371860</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="11">
         <v>0.16</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="12">
         <v>378187</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="11">
         <v>0.17</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="12">
         <v>364330</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="11">
         <v>0.17</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="12">
         <v>363239</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="11">
         <v>0.17</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="12">
         <v>363924</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="11">
         <v>0.16</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="12">
         <v>376343</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="11">
         <v>0.16</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="12">
         <v>386494</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="11">
         <v>0.17</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="12">
         <v>393739</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="11">
         <v>0.19</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="12">
         <v>397863</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="11">
         <v>0.19</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="12">
         <v>416997</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="11">
         <v>0.16</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="12">
         <v>440278</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="11">
         <v>0.16</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="12">
         <v>454970</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="11">
         <v>0.15</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="12">
         <v>481455</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="11">
         <v>0.13</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="12">
         <v>501262</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="11">
         <v>0.13</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="12">
         <v>487504</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="11">
         <v>0.12</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="12">
         <v>503616</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="11">
         <v>0.11</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="12">
         <v>506682</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="11">
         <v>0.1</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="12">
         <v>487366</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3724,35 +2619,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01A4D98-D305-2044-B104-CE88FFB60210}">
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:D43"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -3762,11 +2657,11 @@
       <c r="C2" s="12">
         <v>277158</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="17">
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -3776,11 +2671,11 @@
       <c r="C3" s="12">
         <v>278516</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="17">
         <v>0.42</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3790,7 +2685,7 @@
       <c r="C4" s="12">
         <v>289263</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="17">
         <v>0.405949723831735</v>
       </c>
       <c r="F4" s="16"/>
@@ -3828,10 +2723,8 @@
       <c r="AL4" s="16"/>
       <c r="AM4" s="16"/>
       <c r="AN4" s="16"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -3841,48 +2734,46 @@
       <c r="C5" s="12">
         <v>284928</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="17">
         <v>0.38760523786985646</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -3892,48 +2783,46 @@
       <c r="C6" s="12">
         <v>291926</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="17">
         <v>0.35611848708579347</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -3943,48 +2832,28 @@
       <c r="C7" s="12">
         <v>290722</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="17">
         <v>0.31927550386220366</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -3994,48 +2863,11 @@
       <c r="C8" s="12">
         <v>304374</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="17">
         <v>0.2851865455521494</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -4045,48 +2877,11 @@
       <c r="C9" s="12">
         <v>305558</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="17">
         <v>0.26619718309859153</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -4096,48 +2891,11 @@
       <c r="C10" s="12">
         <v>303976</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="17">
         <v>0.26227558814113278</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -4147,48 +2905,11 @@
       <c r="C11" s="12">
         <v>299837</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="17">
         <v>0.26879602146865944</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -4198,48 +2919,11 @@
       <c r="C12" s="12">
         <v>309953</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="17">
         <v>0.274264579121413</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -4249,48 +2933,11 @@
       <c r="C13" s="12">
         <v>303244</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="17">
         <v>0.29284432208362121</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -4300,48 +2947,11 @@
       <c r="C14" s="12">
         <v>296111</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="17">
         <v>0.3447898518880067</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -4351,48 +2961,11 @@
       <c r="C15" s="12">
         <v>298884</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="17">
         <v>0.38971863666058437</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -4402,46 +2975,9 @@
       <c r="C16" s="12">
         <v>304683</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="17">
         <v>0.43461857038158136</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="20"/>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -4453,7 +2989,7 @@
       <c r="C17" s="12">
         <v>302095</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="17">
         <v>0.45951723923562304</v>
       </c>
     </row>
@@ -4467,7 +3003,7 @@
       <c r="C18" s="12">
         <v>301254</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="17">
         <v>0.45984211857800017</v>
       </c>
     </row>
@@ -4481,7 +3017,7 @@
       <c r="C19" s="12">
         <v>300115</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="17">
         <v>0.43475053314415224</v>
       </c>
     </row>
@@ -4495,7 +3031,7 @@
       <c r="C20" s="12">
         <v>307837</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="17">
         <v>0.44</v>
       </c>
     </row>
@@ -4509,7 +3045,7 @@
       <c r="C21" s="12">
         <v>307662</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="17">
         <v>0.43496027397026099</v>
       </c>
     </row>
@@ -4523,7 +3059,7 @@
       <c r="C22" s="12">
         <v>302814</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="17">
         <v>0.44563142531864403</v>
       </c>
     </row>
@@ -4641,7 +3177,7 @@
         <v>305613</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>31</v>
       </c>
@@ -4652,7 +3188,7 @@
         <v>308560</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>32</v>
       </c>
@@ -4663,7 +3199,7 @@
         <v>305654</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>33</v>
       </c>
@@ -4674,7 +3210,7 @@
         <v>323586</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>34</v>
       </c>
@@ -4685,7 +3221,7 @@
         <v>337213</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>35</v>
       </c>
@@ -4696,56 +3232,38 @@
         <v>326614</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="11">
         <v>0.39</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="12">
         <v>331694</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="11">
         <v>0.35</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="12">
         <v>341288</v>
       </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="11">
         <v>0.31</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="12">
         <v>339860</v>
       </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4754,35 +3272,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE15D5B-91F3-7A41-9312-5A945633BB62}">
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:D42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -4792,11 +3310,11 @@
       <c r="C2" s="12">
         <v>153909</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="17">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4806,11 +3324,11 @@
       <c r="C3" s="12">
         <v>155016</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="17">
         <v>0.31</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -4820,11 +3338,9 @@
       <c r="C4" s="12">
         <v>160147</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="17">
         <v>0.32001662669411013</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -4859,9 +3375,8 @@
       <c r="AL4" s="16"/>
       <c r="AM4" s="16"/>
       <c r="AN4" s="16"/>
-      <c r="AO4" s="20"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -4871,48 +3386,45 @@
       <c r="C5" s="12">
         <v>155512</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="17">
         <v>0.33816807102102464</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="20"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -4922,48 +3434,45 @@
       <c r="C6" s="12">
         <v>156424</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="17">
         <v>0.34024323966368442</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="20"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -4973,48 +3482,27 @@
       <c r="C7" s="12">
         <v>160165</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="17">
         <v>0.33282980124270062</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -5024,31 +3512,11 @@
       <c r="C8" s="12">
         <v>166426</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="17">
         <v>0.34362517226368577</v>
       </c>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -5058,31 +3526,11 @@
       <c r="C9" s="12">
         <v>160073</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="17">
         <v>0.35978264538121435</v>
       </c>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -5092,31 +3540,11 @@
       <c r="C10" s="12">
         <v>161563</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="17">
         <v>0.36008571117489191</v>
       </c>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -5126,31 +3554,11 @@
       <c r="C11" s="12">
         <v>164764</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="17">
         <v>0.35446986838758049</v>
       </c>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -5160,31 +3568,11 @@
       <c r="C12" s="12">
         <v>170403</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="17">
         <v>0.36164856569800619</v>
       </c>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -5194,31 +3582,11 @@
       <c r="C13" s="12">
         <v>164235</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="17">
         <v>0.36563639491838673</v>
       </c>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -5228,11 +3596,11 @@
       <c r="C14" s="12">
         <v>167154</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="17">
         <v>0.37242415887725788</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -5242,11 +3610,11 @@
       <c r="C15" s="12">
         <v>169326</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="17">
         <v>0.35314540137989525</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -5256,7 +3624,7 @@
       <c r="C16" s="12">
         <v>176522</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="17">
         <v>0.35793298398307916</v>
       </c>
     </row>
@@ -5270,7 +3638,7 @@
       <c r="C17" s="12">
         <v>170309</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="17">
         <v>0.34446937725620835</v>
       </c>
     </row>
@@ -5284,7 +3652,7 @@
       <c r="C18" s="12">
         <v>171992</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="17">
         <v>0.33117783975386295</v>
       </c>
     </row>
@@ -5298,7 +3666,7 @@
       <c r="C19" s="12">
         <v>171716</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="17">
         <v>0.30895162778206575</v>
       </c>
     </row>
@@ -5312,7 +3680,7 @@
       <c r="C20" s="12">
         <v>177306</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="17">
         <v>0.3</v>
       </c>
     </row>
@@ -5326,7 +3694,7 @@
       <c r="C21" s="12">
         <v>173182</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="17">
         <v>0.28901325414565998</v>
       </c>
     </row>
@@ -5340,7 +3708,7 @@
       <c r="C22" s="12">
         <v>175297</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="17">
         <v>0.29593527082594101</v>
       </c>
     </row>
@@ -5454,7 +3822,7 @@
         <v>203862</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>31</v>
       </c>
@@ -5465,7 +3833,7 @@
         <v>205940</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>32</v>
       </c>
@@ -5476,7 +3844,7 @@
         <v>217104</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>33</v>
       </c>
@@ -5487,7 +3855,7 @@
         <v>219604</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>34</v>
       </c>
@@ -5498,63 +3866,49 @@
         <v>234337</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="11">
         <v>0.2</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="12">
         <v>219248</v>
       </c>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="11">
         <v>0.18</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="12">
         <v>225131</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="11">
         <v>0.15</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="12">
         <v>228612</v>
       </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="11">
         <v>0.13</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="12">
         <v>237517</v>
       </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
